--- a/assets/texts/texts.xlsx
+++ b/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="52">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -138,6 +138,39 @@
   </si>
   <si>
     <t xml:space="preserve">Small</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Left</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LTR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">New Text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">，</t>
+  </si>
+  <si>
+    <t xml:space="preserve">,.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;d&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId2</t>
   </si>
 </sst>
 </file>
@@ -1355,7 +1388,7 @@
         <v>38</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="E4">
         <v>4</v>
@@ -1579,6 +1612,40 @@
         <v>36</v>
       </c>
     </row>
+    <row r="4">
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:E2"/>
